--- a/parameters-values.xlsx
+++ b/parameters-values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheel/Desktop/tool-website/ML-Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E4127C-D5B4-5847-8BAA-6CEA8CC6280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26312301-6513-934B-80F1-1CC5EE9CA5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14800" xr2:uid="{D60D367C-20CA-9647-818B-1D34229A5F52}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="B1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,6 +1642,7 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
@@ -1663,13 +1664,13 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
         <v>369</v>
@@ -1703,7 +1704,7 @@
         <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
         <v>371</v>
@@ -1815,7 +1816,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>307</v>
